--- a/Files/Final results/CSV/Respirationformulas_and prediction.xlsx
+++ b/Files/Final results/CSV/Respirationformulas_and prediction.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\DeWood GitHub\DeWood\Files\Final results\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17545ECE-7404-425E-8C46-3B43CC9DE31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D32DF8F-943B-4B6A-BC1D-3603D329FE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2670" yWindow="3870" windowWidth="28800" windowHeight="15435" xr2:uid="{EC8D21CC-6140-415A-A63F-F6947D268BEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EC8D21CC-6140-415A-A63F-F6947D268BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>1AA1</t>
   </si>
@@ -109,6 +110,21 @@
   </si>
   <si>
     <t>Fagus sylvatica</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>Class 2</t>
+  </si>
+  <si>
+    <t>Class 4</t>
   </si>
 </sst>
 </file>
@@ -704,7 +720,1371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Abies alba</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1591-4C4C-AC41-D8B4C9741F60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1591-4C4C-AC41-D8B4C9741F60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1591-4C4C-AC41-D8B4C9741F60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="693573824"/>
+        <c:axId val="693574808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="693573824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Diameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693574808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693574808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" b="1">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693573824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Fagus sylvatica</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9B1-403D-8A72-E3FECCB89707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9B1-403D-8A72-E3FECCB89707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9B1-403D-8A72-E3FECCB89707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="693573824"/>
+        <c:axId val="693574808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="693573824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Diameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693574808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693574808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1800" b="1" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" b="1">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693573824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1249,6 +2629,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1282,6 +3694,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123671</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8C9464-87E9-45BA-97EA-B10BB08DF97E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>399894</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D89888-92B8-4F5D-9125-FFD690037FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1590,7 +4081,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,4 +4491,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A585F7-B926-4064-8BE4-BE050976DAB4}">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.37</v>
+      </c>
+      <c r="C3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.32</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.16</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.24</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.65</v>
+      </c>
+      <c r="C10">
+        <v>0.62</v>
+      </c>
+      <c r="D10">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0.17</v>
+      </c>
+      <c r="C11">
+        <v>0.45</v>
+      </c>
+      <c r="D11">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>